--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N2">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O2">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P2">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q2">
-        <v>0.6253219173423332</v>
+        <v>0.3748509948560001</v>
       </c>
       <c r="R2">
-        <v>5.627897256080999</v>
+        <v>3.373658953704</v>
       </c>
       <c r="S2">
-        <v>0.00215110370834091</v>
+        <v>0.001306912803896207</v>
       </c>
       <c r="T2">
-        <v>0.00215110370834091</v>
+        <v>0.001306912803896208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q3">
-        <v>1.813519553689667</v>
+        <v>1.107852401534667</v>
       </c>
       <c r="R3">
-        <v>16.321675983207</v>
+        <v>9.970671613812002</v>
       </c>
       <c r="S3">
-        <v>0.006238496570966903</v>
+        <v>0.003862512060156116</v>
       </c>
       <c r="T3">
-        <v>0.006238496570966903</v>
+        <v>0.003862512060156116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q4">
-        <v>6.563949701118333</v>
+        <v>4.009820255393334</v>
       </c>
       <c r="R4">
-        <v>59.07554731006499</v>
+        <v>36.08838229854</v>
       </c>
       <c r="S4">
-        <v>0.02257994826640466</v>
+        <v>0.01398018280599483</v>
       </c>
       <c r="T4">
-        <v>0.02257994826640466</v>
+        <v>0.01398018280599483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N5">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O5">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P5">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q5">
-        <v>16.52712198470455</v>
+        <v>16.21782421005934</v>
       </c>
       <c r="R5">
-        <v>148.744097862341</v>
+        <v>145.960417890534</v>
       </c>
       <c r="S5">
-        <v>0.05685320217240653</v>
+        <v>0.05654321957877333</v>
       </c>
       <c r="T5">
-        <v>0.05685320217240653</v>
+        <v>0.05654321957877334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q6">
         <v>47.93092654238079</v>
@@ -818,10 +818,10 @@
         <v>431.3783388814271</v>
       </c>
       <c r="S6">
-        <v>0.1648821046729543</v>
+        <v>0.1671105118045903</v>
       </c>
       <c r="T6">
-        <v>0.1648821046729543</v>
+        <v>0.1671105118045903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q7">
         <v>173.4837599694406</v>
@@ -880,10 +880,10 @@
         <v>1561.353839724965</v>
       </c>
       <c r="S7">
-        <v>0.5967831113184688</v>
+        <v>0.6048487273168807</v>
       </c>
       <c r="T7">
-        <v>0.5967831113184688</v>
+        <v>0.6048487273168807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N8">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O8">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P8">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q8">
-        <v>3.039065070689</v>
+        <v>2.982190312686001</v>
       </c>
       <c r="R8">
-        <v>27.351585636201</v>
+        <v>26.83971281417401</v>
       </c>
       <c r="S8">
-        <v>0.01045436592280766</v>
+        <v>0.01039736523789083</v>
       </c>
       <c r="T8">
-        <v>0.01045436592280766</v>
+        <v>0.01039736523789083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q9">
         <v>8.813706632983003</v>
@@ -1004,10 +1004,10 @@
         <v>79.32335969684701</v>
       </c>
       <c r="S9">
-        <v>0.0303190988459459</v>
+        <v>0.03072886615348419</v>
       </c>
       <c r="T9">
-        <v>0.0303190988459459</v>
+        <v>0.03072886615348419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q10">
         <v>31.90080134598501</v>
@@ -1066,10 +1066,10 @@
         <v>287.107212113865</v>
       </c>
       <c r="S10">
-        <v>0.1097385685217041</v>
+        <v>0.1112217022383336</v>
       </c>
       <c r="T10">
-        <v>0.1097385685217041</v>
+        <v>0.1112217022383336</v>
       </c>
     </row>
   </sheetData>
